--- a/data/trans_bre/P1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 7,67</t>
+          <t>-4,17; 7,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 6,41</t>
+          <t>-5,26; 6,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 3,8</t>
+          <t>-7,42; 3,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 91,8</t>
+          <t>-30,47; 83,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-36,05; 68,77</t>
+          <t>-36,76; 74,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,87; 27,47</t>
+          <t>-35,71; 26,71</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 5,44</t>
+          <t>-1,76; 5,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 5,13</t>
+          <t>-1,32; 5,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,29</t>
+          <t>-3,81; 2,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 5,91</t>
+          <t>-3,96; 5,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 100,9</t>
+          <t>-18,38; 100,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,6; 138,98</t>
+          <t>-18,99; 144,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,62; 53,46</t>
+          <t>-41,6; 47,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 46,2</t>
+          <t>-20,49; 44,62</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 5,83</t>
+          <t>-2,76; 6,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 11,13</t>
+          <t>1,2; 11,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 9,46</t>
+          <t>-0,42; 10,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 7,71</t>
+          <t>-2,58; 8,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 115,25</t>
+          <t>-30,78; 126,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,14; 200,29</t>
+          <t>9,26; 224,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 131,59</t>
+          <t>-6,45; 146,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 48,87</t>
+          <t>-11,93; 50,17</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 7,89</t>
+          <t>0,69; 8,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 3,2</t>
+          <t>-3,01; 3,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 7,8</t>
+          <t>-2,79; 6,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 4,92</t>
+          <t>-8,08; 4,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 203,01</t>
+          <t>3,25; 205,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 42,6</t>
+          <t>-30,49; 45,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 95,25</t>
+          <t>-20,36; 79,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 28,05</t>
+          <t>-31,96; 28,06</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,83; -0,69</t>
+          <t>-10,59; -1,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 7,72</t>
+          <t>-2,16; 7,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 0,91</t>
+          <t>-12,37; 0,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -0,37</t>
+          <t>-14,99; -0,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-83,67; -0,12</t>
+          <t>-84,23; -8,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 263,51</t>
+          <t>-35,98; 243,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-67,18; 13,9</t>
+          <t>-67,23; 7,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-51,91; -2,64</t>
+          <t>-53,97; -2,4</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 8,1</t>
+          <t>-1,4; 8,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 11,31</t>
+          <t>-0,31; 10,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 8,1</t>
+          <t>-3,63; 8,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,17; -0,4</t>
+          <t>-12,39; -0,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 137,24</t>
+          <t>-15,06; 142,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,7; 217,67</t>
+          <t>-4,95; 193,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 94,58</t>
+          <t>-26,56; 98,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,47; -1,78</t>
+          <t>-40,59; -2,42</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 4,25</t>
+          <t>-1,97; 4,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 5,33</t>
+          <t>-1,67; 5,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,85</t>
+          <t>-2,64; 6,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,26; -2,09</t>
+          <t>-11,44; -2,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,92; 75,7</t>
+          <t>-22,78; 74,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 70,5</t>
+          <t>-15,14; 71,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 35,44</t>
+          <t>-12,59; 37,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-57,17; -13,4</t>
+          <t>-58,29; -14,22</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,8</t>
+          <t>-1,43; 3,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 2,4</t>
+          <t>-4,0; 2,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 3,14</t>
+          <t>-3,51; 3,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,77; 10,09</t>
+          <t>2,03; 9,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 77,04</t>
+          <t>-20,15; 77,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,26; 26,87</t>
+          <t>-32,44; 29,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 30,3</t>
+          <t>-24,49; 26,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,05; 95,53</t>
+          <t>14,43; 92,33</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,84</t>
+          <t>-0,05; 2,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,96</t>
+          <t>0,27; 2,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,41</t>
+          <t>-1,06; 2,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,3</t>
+          <t>-2,67; 1,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,89; 44,49</t>
+          <t>-0,05; 43,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,07; 39,4</t>
+          <t>2,99; 39,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 20,39</t>
+          <t>-7,96; 19,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 7,62</t>
+          <t>-14,38; 8,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 7,3</t>
+          <t>-4,18; 7,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 6,19</t>
+          <t>-4,8; 6,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,47; 83,89</t>
+          <t>-29,6; 84,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-36,76; 74,67</t>
+          <t>-35,32; 71,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 5,55</t>
+          <t>-1,16; 6,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 5,1</t>
+          <t>-1,42; 5,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 2,94</t>
+          <t>-4,23; 2,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 100,28</t>
+          <t>-15,27; 124,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 144,59</t>
+          <t>-21,68; 157,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,6; 47,12</t>
+          <t>-43,51; 48,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 6,4</t>
+          <t>-2,7; 6,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 11,55</t>
+          <t>1,13; 11,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 10,12</t>
+          <t>-0,73; 9,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,78; 126,5</t>
+          <t>-29,31; 141,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,26; 224,65</t>
+          <t>10,94; 220,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 146,0</t>
+          <t>-6,85; 126,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 8,05</t>
+          <t>0,21; 8,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 3,35</t>
+          <t>-3,01; 3,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 6,96</t>
+          <t>-2,66; 7,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 205,75</t>
+          <t>-1,2; 207,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 45,65</t>
+          <t>-29,72; 44,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 79,52</t>
+          <t>-20,56; 76,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,59; -1,01</t>
+          <t>-10,5; -1,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 7,0</t>
+          <t>-2,34; 6,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 0,59</t>
+          <t>-11,88; 0,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-84,23; -8,29</t>
+          <t>-83,38; -2,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-35,98; 243,28</t>
+          <t>-39,21; 282,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-67,23; 7,46</t>
+          <t>-65,31; 8,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 8,55</t>
+          <t>-2,0; 7,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 10,16</t>
+          <t>0,34; 11,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 8,04</t>
+          <t>-3,68; 7,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 142,39</t>
+          <t>-21,01; 130,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 193,89</t>
+          <t>0,5; 205,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,56; 98,29</t>
+          <t>-26,62; 87,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 4,18</t>
+          <t>-1,82; 4,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 5,42</t>
+          <t>-1,73; 5,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 6,03</t>
+          <t>-3,08; 6,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 74,86</t>
+          <t>-21,08; 78,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 71,47</t>
+          <t>-16,42; 72,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 37,07</t>
+          <t>-14,81; 37,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 3,86</t>
+          <t>-1,2; 3,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 2,65</t>
+          <t>-4,17; 2,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,06</t>
+          <t>-3,81; 3,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 77,35</t>
+          <t>-16,94; 76,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 29,91</t>
+          <t>-33,14; 24,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 26,62</t>
+          <t>-25,41; 33,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 2,8</t>
+          <t>0,07; 2,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,98</t>
+          <t>0,22; 3,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,3</t>
+          <t>-1,0; 2,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 43,38</t>
+          <t>0,47; 43,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,99; 39,28</t>
+          <t>2,54; 40,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 19,18</t>
+          <t>-7,64; 19,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 7,24</t>
+          <t>-3,93; 7,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 6,13</t>
+          <t>-5,22; 6,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 3,66</t>
+          <t>-7,72; 3,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-29,6; 84,27</t>
+          <t>-29,28; 91,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,32; 71,73</t>
+          <t>-36,05; 68,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,71; 26,71</t>
+          <t>-35,87; 27,47</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 6,47</t>
+          <t>-1,44; 5,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 5,34</t>
+          <t>-1,37; 5,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 2,9</t>
+          <t>-3,78; 3,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 5,71</t>
+          <t>-3,4; 5,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 124,51</t>
+          <t>-18,6; 100,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 157,24</t>
+          <t>-23,6; 138,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,51; 48,12</t>
+          <t>-39,62; 53,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 44,62</t>
+          <t>-18,25; 46,2</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 6,27</t>
+          <t>-2,32; 5,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 11,28</t>
+          <t>1,21; 11,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 9,43</t>
+          <t>-0,37; 9,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 8,46</t>
+          <t>-3,04; 7,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 141,46</t>
+          <t>-27,64; 115,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,94; 220,26</t>
+          <t>11,14; 200,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 126,45</t>
+          <t>-5,96; 131,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 50,17</t>
+          <t>-13,45; 48,87</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 8,06</t>
+          <t>0,23; 7,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 3,12</t>
+          <t>-3,2; 3,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 7,27</t>
+          <t>-2,79; 7,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 4,87</t>
+          <t>-7,74; 4,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 207,15</t>
+          <t>-0,49; 203,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 44,66</t>
+          <t>-30,91; 42,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 76,76</t>
+          <t>-21,18; 95,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,96; 28,06</t>
+          <t>-30,12; 28,05</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -1,03</t>
+          <t>-10,83; -0,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 6,87</t>
+          <t>-1,83; 7,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 0,64</t>
+          <t>-12,07; 0,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,99; -0,33</t>
+          <t>-14,47; -0,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-83,38; -2,28</t>
+          <t>-83,67; -0,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,21; 282,68</t>
+          <t>-31,7; 263,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-65,31; 8,64</t>
+          <t>-67,18; 13,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-53,97; -2,4</t>
+          <t>-51,91; -2,64</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 7,96</t>
+          <t>-1,81; 8,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 11,02</t>
+          <t>0,71; 11,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 7,63</t>
+          <t>-3,85; 8,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,39; -0,52</t>
+          <t>-12,17; -0,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 130,24</t>
+          <t>-18,71; 137,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 205,9</t>
+          <t>4,7; 217,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 87,38</t>
+          <t>-28,53; 94,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,59; -2,42</t>
+          <t>-40,47; -1,78</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 4,37</t>
+          <t>-1,9; 4,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 5,51</t>
+          <t>-1,52; 5,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 6,13</t>
+          <t>-2,85; 5,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,44; -2,2</t>
+          <t>-11,26; -2,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 78,94</t>
+          <t>-23,92; 75,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 72,77</t>
+          <t>-14,31; 70,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 37,86</t>
+          <t>-13,8; 35,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-58,29; -14,22</t>
+          <t>-57,17; -13,4</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,8</t>
+          <t>-1,3; 3,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 2,19</t>
+          <t>-4,29; 2,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 3,34</t>
+          <t>-3,66; 3,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,03; 9,62</t>
+          <t>2,77; 10,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 76,84</t>
+          <t>-17,62; 77,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,14; 24,56</t>
+          <t>-35,26; 26,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,41; 33,14</t>
+          <t>-25,47; 30,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,43; 92,33</t>
+          <t>18,05; 95,53</t>
         </is>
       </c>
     </row>
@@ -1473,37 +1473,37 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,03</t>
+          <t>0,1; 2,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,33</t>
+          <t>-0,88; 2,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,39</t>
+          <t>-2,6; 1,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,47; 43,25</t>
+          <t>0,89; 44,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,54; 40,07</t>
+          <t>1,07; 39,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 19,87</t>
+          <t>-6,68; 20,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 8,3</t>
+          <t>-13,93; 7,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>-14,15%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; 5,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 3,8</t>
+          <t>-9,56; 3,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,94; 97,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,87; 27,47</t>
+          <t>-40,82; 26,14</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>9,76%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 5,91</t>
+          <t>-3,07; 6,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 46,2</t>
+          <t>-17,14; 49,87</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>13,83%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 7,71</t>
+          <t>-3,18; 7,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 48,87</t>
+          <t>-14,24; 49,03</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,1%</t>
+          <t>-8,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,56%</t>
+          <t>-20,65%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 3,2</t>
+          <t>-5,25; 3,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 4,92</t>
+          <t>-14,36; 2,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 42,6</t>
+          <t>-44,22; 44,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 28,05</t>
+          <t>-58,17; 11,76</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,06</t>
+          <t>-8,82</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-28,59%</t>
+          <t>-35,67%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -0,37</t>
+          <t>-17,9; -1,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-51,91; -2,64</t>
+          <t>-64,92; -10,46</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-23,04%</t>
+          <t>-22,61%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,17; -0,4</t>
+          <t>-11,99; -0,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,47; -1,78</t>
+          <t>-39,94; -1,04</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,09</t>
+          <t>-7,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-33,85%</t>
+          <t>-41,1%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,26; -2,09</t>
+          <t>-13,71; -2,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-57,17; -13,4</t>
+          <t>-71,0; -15,59</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>87,86%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,77; 10,09</t>
+          <t>4,19; 15,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,05; 95,53</t>
+          <t>30,3; 316,01</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>-3,08%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,3</t>
+          <t>-3,51; 2,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 7,62</t>
+          <t>-19,72; 17,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 7,67</t>
+          <t>-3,73; 7,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 5,58</t>
+          <t>-3,33; 5,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 6,41</t>
+          <t>-5,07; 6,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 3,4</t>
+          <t>-9,22; 2,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 91,8</t>
+          <t>-28,49; 85,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,94; 97,95</t>
+          <t>-32,44; 94,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-36,05; 68,77</t>
+          <t>-34,83; 68,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,82; 26,14</t>
+          <t>-41,65; 19,51</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 5,44</t>
+          <t>-1,39; 5,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 5,13</t>
+          <t>-1,13; 5,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,29</t>
+          <t>-3,88; 3,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 6,21</t>
+          <t>-3,55; 6,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 100,9</t>
+          <t>-16,62; 102,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,6; 138,98</t>
+          <t>-18,94; 161,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,62; 53,46</t>
+          <t>-40,48; 51,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 49,87</t>
+          <t>-19,16; 49,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 5,83</t>
+          <t>-2,5; 6,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 11,13</t>
+          <t>1,62; 11,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 9,46</t>
+          <t>-0,76; 9,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 7,42</t>
+          <t>-2,65; 7,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 115,25</t>
+          <t>-28,7; 127,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,14; 200,29</t>
+          <t>15,79; 206,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 131,59</t>
+          <t>-8,21; 129,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 49,03</t>
+          <t>-11,97; 48,47</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 7,89</t>
+          <t>-0,04; 7,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 3,37</t>
+          <t>-5,11; 3,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 7,8</t>
+          <t>-2,98; 7,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 2,41</t>
+          <t>-13,81; 2,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 203,01</t>
+          <t>-3,99; 207,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,22; 44,45</t>
+          <t>-41,94; 50,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 95,25</t>
+          <t>-22,81; 88,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,17; 11,76</t>
+          <t>-53,54; 15,38</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,83; -0,69</t>
+          <t>-10,82; -0,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 7,72</t>
+          <t>-2,25; 6,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 0,91</t>
+          <t>-11,91; 0,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,9; -1,92</t>
+          <t>-19,05; -2,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-83,67; -0,12</t>
+          <t>-84,71; 1,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 263,51</t>
+          <t>-35,29; 225,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-67,18; 13,9</t>
+          <t>-66,82; 6,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-64,92; -10,46</t>
+          <t>-66,15; -11,69</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 8,1</t>
+          <t>-1,95; 8,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 11,31</t>
+          <t>0,57; 11,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 8,1</t>
+          <t>-3,66; 7,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,99; -0,28</t>
+          <t>-11,93; -0,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 137,24</t>
+          <t>-19,99; 143,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,7; 217,67</t>
+          <t>4,22; 200,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 94,58</t>
+          <t>-26,95; 81,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,94; -1,04</t>
+          <t>-38,18; -0,08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 4,25</t>
+          <t>-1,66; 4,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 5,33</t>
+          <t>-1,48; 5,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,85</t>
+          <t>-3,12; 6,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,71; -2,62</t>
+          <t>-14,05; -2,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,92; 75,7</t>
+          <t>-20,05; 78,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 70,5</t>
+          <t>-14,02; 73,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 35,44</t>
+          <t>-14,96; 38,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-71,0; -15,59</t>
+          <t>-72,0; -15,82</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,8</t>
+          <t>-1,22; 3,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 2,4</t>
+          <t>-4,01; 2,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 3,14</t>
+          <t>-3,64; 3,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,19; 15,96</t>
+          <t>3,82; 14,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 77,04</t>
+          <t>-17,56; 78,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,26; 26,87</t>
+          <t>-32,65; 28,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 30,3</t>
+          <t>-25,81; 28,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>30,3; 316,01</t>
+          <t>27,47; 311,22</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,84</t>
+          <t>0,11; 2,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,96</t>
+          <t>0,06; 2,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,41</t>
+          <t>-1,18; 2,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 2,79</t>
+          <t>-3,79; 2,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,89; 44,49</t>
+          <t>1,9; 42,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,07; 39,4</t>
+          <t>0,53; 38,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 20,39</t>
+          <t>-8,67; 20,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 17,9</t>
+          <t>-20,94; 18,47</t>
         </is>
       </c>
     </row>
